--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1499,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1546,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1592,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3231,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3324,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3739,10 +3751,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3786,28 +3798,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3832,28 +3844,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3999,10 +4011,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4046,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4092,28 +4104,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4230,10 +4242,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4277,28 +4289,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4323,28 +4335,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4432,10 +4444,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4479,28 +4491,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4525,28 +4537,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4663,10 +4675,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4710,28 +4722,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4756,28 +4768,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4865,10 +4877,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4912,28 +4924,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4958,28 +4970,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5050,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5085,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5143,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5223,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5258,28 +5270,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5316,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5413,10 +5425,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5460,28 +5472,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5506,28 +5518,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5627,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5662,28 +5674,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5720,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5829,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5864,28 +5876,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5922,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6019,10 +6031,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6066,28 +6078,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6112,28 +6124,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6192,10 +6204,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6239,28 +6251,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6285,28 +6297,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6423,10 +6435,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6470,28 +6482,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6516,28 +6528,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6654,10 +6666,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6701,28 +6713,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6747,28 +6759,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6856,10 +6868,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6903,28 +6915,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6949,28 +6961,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7087,10 +7099,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7134,28 +7146,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7180,28 +7192,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7289,10 +7301,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7336,28 +7348,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7382,28 +7394,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7503,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7538,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7596,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8022,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8069,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8115,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8241,10 +8253,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8288,28 +8300,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8334,28 +8346,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8414,10 +8426,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8461,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8507,28 +8519,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8616,10 +8628,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8663,28 +8675,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8709,28 +8721,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8789,10 +8801,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8836,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8882,28 +8894,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8962,10 +8974,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9009,28 +9021,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9055,28 +9067,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9135,10 +9147,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9182,28 +9194,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9228,28 +9240,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9337,10 +9349,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9384,28 +9396,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9430,28 +9442,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9510,10 +9522,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9557,28 +9569,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9603,28 +9615,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9683,10 +9695,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
